--- a/Doc/DicoDonnées.xlsx
+++ b/Doc/DicoDonnées.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="10515" windowHeight="5190"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="10520" windowHeight="5190"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de Donnée Tabulous" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
   <si>
     <t>Nom</t>
   </si>
@@ -73,9 +73,6 @@
     <t>InstrumentPrefMembre</t>
   </si>
   <si>
-    <t>ArtisteTablature</t>
-  </si>
-  <si>
     <t>AlbumTablature</t>
   </si>
   <si>
@@ -178,15 +175,6 @@
     <t>Réel</t>
   </si>
   <si>
-    <t>MoyenneTablature</t>
-  </si>
-  <si>
-    <t>CumulNoteTablature/NbNoteTablature</t>
-  </si>
-  <si>
-    <t>La moyenne de la tablature (0-10)</t>
-  </si>
-  <si>
     <t>La moyenne du membre (0-10)</t>
   </si>
   <si>
@@ -202,27 +190,15 @@
     <t>Format de la tablature (txt-pdf-gp6)</t>
   </si>
   <si>
-    <t>NumNote</t>
-  </si>
-  <si>
     <t>CumulNote</t>
   </si>
   <si>
     <t>NbNote</t>
   </si>
   <si>
-    <t>Le numéro des notes membres et tablatures</t>
-  </si>
-  <si>
     <t>Le cumule des notes (0-10)</t>
   </si>
   <si>
-    <t>CumulNote+nouvelle note</t>
-  </si>
-  <si>
-    <t>NbNote + 1</t>
-  </si>
-  <si>
     <t>IdGenre</t>
   </si>
   <si>
@@ -242,6 +218,45 @@
   </si>
   <si>
     <t>Le numéro d'identification du commentaire de la tablature</t>
+  </si>
+  <si>
+    <t>Pseudo</t>
+  </si>
+  <si>
+    <t>MotDePasse</t>
+  </si>
+  <si>
+    <t>Mot de passe du membre</t>
+  </si>
+  <si>
+    <t>Pseudonyme du membre</t>
+  </si>
+  <si>
+    <t>GenreMusique</t>
+  </si>
+  <si>
+    <t>InstrumentTablature</t>
+  </si>
+  <si>
+    <t>Instrument à utiliser</t>
+  </si>
+  <si>
+    <t>Genre de la musique</t>
+  </si>
+  <si>
+    <t>NumArtiste</t>
+  </si>
+  <si>
+    <t>Clé étrangère</t>
+  </si>
+  <si>
+    <t>L'id des artistes</t>
+  </si>
+  <si>
+    <t>NomArtiste</t>
+  </si>
+  <si>
+    <t>Nom de l'artiste</t>
   </si>
 </sst>
 </file>
@@ -334,13 +349,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -350,6 +364,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,23 +669,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="25.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -701,468 +719,536 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="E19" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
